--- a/AAII_Financials/Yearly/ABL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ABL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>ABL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,11 +711,11 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1200</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -738,11 +738,11 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>700</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -765,11 +765,11 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -859,26 +859,26 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -886,11 +886,11 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -923,11 +923,11 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1300</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -950,11 +950,11 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -990,11 +990,11 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1017,11 +1017,11 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1044,26 +1044,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,11 +1071,11 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1098,11 +1098,11 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1152,11 +1152,11 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1179,11 +1179,11 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1233,26 +1233,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3"/>
     </row>
@@ -1314,11 +1314,11 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1341,11 +1341,11 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1395,11 +1395,11 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1480,11 +1480,11 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1507,26 +1507,26 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1534,11 +1534,11 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1561,26 +1561,26 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,11 +1588,11 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1615,11 +1615,11 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1642,11 +1642,11 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1500</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1669,11 +1669,11 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1696,26 +1696,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,11 +1777,11 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1831,11 +1831,11 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1800</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1884,11 +1884,11 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1911,26 +1911,26 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,11 +1938,11 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1000</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1965,11 +1965,11 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1000</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>28200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2019,11 +2019,11 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2127,11 +2127,11 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>900</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2275,11 +2275,11 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2383,11 +2383,11 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>900</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2469,11 +2469,11 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2509,11 +2509,11 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2671,11 +2671,11 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2711,11 +2711,11 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2792,11 +2792,11 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2940,11 +2940,11 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2967,26 +2967,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,11 +2994,11 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
